--- a/资产负债表/300913.xlsx
+++ b/资产负债表/300913.xlsx
@@ -769,14 +769,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -789,65 +789,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2020-09-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>595803582.14</v>
+        <v>705520703.62</v>
       </c>
       <c r="P2" t="n">
-        <v>112167013.61</v>
+        <v>118948571.13</v>
       </c>
       <c r="Q2" t="n">
-        <v>37986030.28</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-9.176332411500001</v>
-      </c>
+        <v>72927195.19</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>251334316.45</v>
-      </c>
-      <c r="T2" t="n">
-        <v>13.6646219669</v>
-      </c>
+        <v>250763856.87</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>100421083.17</v>
-      </c>
-      <c r="V2" t="n">
-        <v>-2.01379126</v>
-      </c>
+        <v>135221919.69</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>243744954.44</v>
+        <v>300943890.59</v>
       </c>
       <c r="X2" t="n">
-        <v>56655372.88</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>32.775611472</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>3850162.92</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>33.0908214677</v>
-      </c>
+        <v>76633129.23999999</v>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>352058627.7</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>27.1895496769</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>10.7153517544</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>-6.7331965239</v>
-      </c>
+        <v>404576813.03</v>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="n">
-        <v>177.7762935451</v>
+        <v>188.5583848424</v>
       </c>
       <c r="AG2" t="n">
-        <v>40.9102868372</v>
+        <v>42.6555718416</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
